--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -186,6 +186,72 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/a1a320db-682a-4846-b99f-9414f6a17a2c</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>d1297638-951b-4f15-9fb1-55d98b8e36ac</t>
+  </si>
+  <si>
+    <t>d507a810-cff7-4168-bc10-70a32a55920f</t>
+  </si>
+  <si>
+    <t>4791f609-8567-48cd-96a2-9eb8157aac11</t>
+  </si>
+  <si>
+    <t>a1a320db-682a-4846-b99f-9414f6a17a2c</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21833</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21834</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21835</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22146</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21833/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21834/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21835/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22146/manifest</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
@@ -199,72 +265,6 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/22146/NB-247_001.jpg</t>
-  </si>
-  <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21833/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21834/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21835/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22146/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>d1297638-951b-4f15-9fb1-55d98b8e36ac</t>
-  </si>
-  <si>
-    <t>d507a810-cff7-4168-bc10-70a32a55920f</t>
-  </si>
-  <si>
-    <t>4791f609-8567-48cd-96a2-9eb8157aac11</t>
-  </si>
-  <si>
-    <t>a1a320db-682a-4846-b99f-9414f6a17a2c</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21833</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21834</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21835</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22146</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>年</t>
   </si>
   <si>
     <t>dcterms:isReferencedBy</t>
@@ -703,28 +703,28 @@
         <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AA1" t="s">
         <v>83</v>
@@ -776,23 +776,23 @@
       <c r="Q2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -832,23 +832,23 @@
       <c r="Q3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" t="s">
-        <v>70</v>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>81</v>
+      <c r="Z3" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>84</v>
@@ -900,22 +900,22 @@
       <c r="Q4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -977,59 +977,59 @@
       <c r="Q5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
+      <c r="T5" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="R2" r:id="rId3"/>
-    <hyperlink ref="S2" r:id="rId4"/>
+    <hyperlink ref="S2" r:id="rId3" location="rightToLeftDirection"/>
+    <hyperlink ref="V2" r:id="rId4"/>
     <hyperlink ref="W2" r:id="rId5"/>
     <hyperlink ref="X2" r:id="rId6"/>
-    <hyperlink ref="Y2" r:id="rId7" location="rightToLeftDirection"/>
+    <hyperlink ref="Z2" r:id="rId7"/>
     <hyperlink ref="P3" r:id="rId8"/>
     <hyperlink ref="Q3" r:id="rId9"/>
-    <hyperlink ref="R3" r:id="rId10"/>
-    <hyperlink ref="S3" r:id="rId11"/>
+    <hyperlink ref="S3" r:id="rId10" location="rightToLeftDirection"/>
+    <hyperlink ref="V3" r:id="rId11"/>
     <hyperlink ref="W3" r:id="rId12"/>
     <hyperlink ref="X3" r:id="rId13"/>
-    <hyperlink ref="Y3" r:id="rId14" location="rightToLeftDirection"/>
+    <hyperlink ref="Z3" r:id="rId14"/>
     <hyperlink ref="AA3" r:id="rId15"/>
     <hyperlink ref="AB3" r:id="rId16"/>
     <hyperlink ref="AC3" r:id="rId17"/>
     <hyperlink ref="AD3" r:id="rId18"/>
     <hyperlink ref="P4" r:id="rId19"/>
     <hyperlink ref="Q4" r:id="rId20"/>
-    <hyperlink ref="R4" r:id="rId21"/>
-    <hyperlink ref="S4" r:id="rId22"/>
+    <hyperlink ref="S4" r:id="rId21" location="rightToLeftDirection"/>
+    <hyperlink ref="V4" r:id="rId22"/>
     <hyperlink ref="W4" r:id="rId23"/>
     <hyperlink ref="X4" r:id="rId24"/>
-    <hyperlink ref="Y4" r:id="rId25" location="rightToLeftDirection"/>
+    <hyperlink ref="Z4" r:id="rId25"/>
     <hyperlink ref="AA4" r:id="rId26"/>
     <hyperlink ref="AB4" r:id="rId27"/>
     <hyperlink ref="AC4" r:id="rId28"/>
     <hyperlink ref="AD4" r:id="rId29"/>
     <hyperlink ref="P5" r:id="rId30"/>
     <hyperlink ref="Q5" r:id="rId31"/>
-    <hyperlink ref="R5" r:id="rId32"/>
-    <hyperlink ref="S5" r:id="rId33"/>
-    <hyperlink ref="W5" r:id="rId34"/>
-    <hyperlink ref="X5" r:id="rId35"/>
+    <hyperlink ref="V5" r:id="rId32"/>
+    <hyperlink ref="W5" r:id="rId33"/>
+    <hyperlink ref="X5" r:id="rId34"/>
+    <hyperlink ref="Z5" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
   <si>
     <t>資料名/Title</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>大坂町中江出寺請状諸宗寺々五人組判形帳</t>
   </si>
   <si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>解題/Description</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
   </si>
   <si>
     <t>大坂町中(現在の大阪市主部)及び近郊の寺院の判形(印鑑影)を、宗派別さらに「五人組」と呼ぶ寺院グループごとに集録した台帳。元禄8年(1695)に大坂町奉行所において作成され管下の町々に頒布されて、寺院から発行される証文類の確認の必要に備えたものと思われる。冊末には、宗旨手形や家数証文の書式雛型、奉行所から町々に宛てられた触書などの関係書類が収められている。法制史資料室所蔵本は南農人町壱丁目に下付され町年寄の手許において管理使用されていたものだが、同タイトルで淡路町弐丁目に伝存したものが大阪府立図書館に所蔵されており、「おおさかeコレクション」*で閲覧できるため比較対照に好便である。_x000D_
@@ -45,12 +51,18 @@
     <t>出版事項/Publication, Discribution, etc.Area</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>Leonhard Simion Nf</t>
   </si>
   <si>
     <t>数量/Unit</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>竪帳; 1冊</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
     <t>日付/Date</t>
   </si>
   <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
     <t>元禄8年/1695</t>
   </si>
   <si>
@@ -72,7 +87,10 @@
     <t>1921-1922</t>
   </si>
   <si>
-    <t>所蔵/Location</t>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
   </si>
   <si>
     <t>東京大学法学部研究室図書室法制史資料室 / Legal History Section, Faculty of Law Library, the University of Tokyo</t>
@@ -84,15 +102,24 @@
     <t>所蔵年次/Year</t>
   </si>
   <si>
+    <t>dcndl:holdingIssues</t>
+  </si>
+  <si>
     <t>所蔵巻号/Volumes</t>
   </si>
   <si>
+    <t>dcndl:volume</t>
+  </si>
+  <si>
     <t>Nr. 1-6, 3. Jahrg.</t>
   </si>
   <si>
     <t>請求記号/Call No.</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
     <t>甲:2:1291</t>
   </si>
   <si>
@@ -108,6 +135,9 @@
     <t>資料区分/Document Categoly</t>
   </si>
   <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
     <t>古文書;Historical Documents</t>
   </si>
   <si>
@@ -117,12 +147,18 @@
     <t>データ形式/Format</t>
   </si>
   <si>
+    <t>dcterms:format</t>
+  </si>
+  <si>
     <t>jpeg</t>
   </si>
   <si>
     <t>本文言語/Language</t>
   </si>
   <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
     <t>jpn</t>
   </si>
   <si>
@@ -135,6 +171,9 @@
     <t>地域/Region</t>
   </si>
   <si>
+    <t>dcterms:spatial</t>
+  </si>
+  <si>
     <t>ja</t>
   </si>
   <si>
@@ -147,6 +186,9 @@
     <t>備考/Comments</t>
   </si>
   <si>
+    <t>rdfs:comment</t>
+  </si>
+  <si>
     <t>南農人町壱丁目に伝存したもの</t>
   </si>
   <si>
@@ -159,10 +201,16 @@
     <t>書誌番号/Bib.ID</t>
   </si>
   <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
     <t>3000001573</t>
   </si>
   <si>
-    <t>ライセンス/License</t>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
   </si>
   <si>
     <t>https://www.lib.j.u-tokyo.ac.jp/digitalarchive/terms/legalhistorysectionterms.html</t>
@@ -171,7 +219,10 @@
     <t>https://www.lib.j.u-tokyo.ac.jp/digitalarchive/terms/facultyoflawlibraryterms.html</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/d1297638-951b-4f15-9fb1-55d98b8e36ac</t>
@@ -186,121 +237,163 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/a1a320db-682a-4846-b99f-9414f6a17a2c</t>
   </si>
   <si>
-    <t>年</t>
+    <t>Is Referenced By</t>
+  </si>
+  <si>
+    <t>dcterms:isReferencedBy</t>
+  </si>
+  <si>
+    <t>http://www.tapasproject.org/tapas-commons/files/御前落居記録</t>
+  </si>
+  <si>
+    <t>http://www.tapasproject.org/tapas-commons/files/御前落居奉書</t>
+  </si>
+  <si>
+    <t>Annotated Manifest</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/17/manifest.json</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/18/manifest.json</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
+    <t>https://utda.github.io/text/rtf/d507a810-cff7-4168-bc10-70a32a55920f.rtf</t>
+  </si>
+  <si>
+    <t>https://utda.github.io/text/rtf/4791f609-8567-48cd-96a2-9eb8157aac11.rtf</t>
+  </si>
+  <si>
+    <t>Search Api Uri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtCVV5BlzexxOBCKGJychNQ%EF%BC%8BAeAAAVQ6ShHMH6Ixez52wZF%EF%BC%8BnmfrR3mLh7k%EF%BC%8FKGMJfCg%3D</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtBQDKogs60S0CHoIbhQHKsFTuRiRV5FBm%EF%BC%8BzbW7Pwyak%EF%BC%8F1aA0wqxOzU9WBMnu2ioDk0%3D</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>d1297638-951b-4f15-9fb1-55d98b8e36ac</t>
+  </si>
+  <si>
+    <t>d507a810-cff7-4168-bc10-70a32a55920f</t>
+  </si>
+  <si>
+    <t>4791f609-8567-48cd-96a2-9eb8157aac11</t>
+  </si>
+  <si>
+    <t>a1a320db-682a-4846-b99f-9414f6a17a2c</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/21833/KO2-1291_001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/21834/KO2-523-2_001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/21835/KO2-524-2_001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/22146/NB-247_001.jpg</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21833</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21834</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21835</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22146</t>
   </si>
   <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>d1297638-951b-4f15-9fb1-55d98b8e36ac</t>
-  </si>
-  <si>
-    <t>d507a810-cff7-4168-bc10-70a32a55920f</t>
-  </si>
-  <si>
-    <t>4791f609-8567-48cd-96a2-9eb8157aac11</t>
-  </si>
-  <si>
-    <t>a1a320db-682a-4846-b99f-9414f6a17a2c</t>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d1297638-951b-4f15-9fb1-55d98b8e36ac/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d507a810-cff7-4168-bc10-70a32a55920f/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4791f609-8567-48cd-96a2-9eb8157aac11/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/a1a320db-682a-4846-b99f-9414f6a17a2c/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21833</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21834</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/21835</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/22146</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21833/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21834/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/21835/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/22146/manifest</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/21833/KO2-1291_001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/21834/KO2-523-2_001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/21835/KO2-524-2_001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/22146/NB-247_001.jpg</t>
-  </si>
-  <si>
-    <t>dcterms:isReferencedBy</t>
-  </si>
-  <si>
-    <t>http://www.tapasproject.org/tapas-commons/files/御前落居記録</t>
-  </si>
-  <si>
-    <t>http://www.tapasproject.org/tapas-commons/files/御前落居奉書</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/17/manifest.json</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/18/manifest.json</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>https://utda.github.io/text/rtf/d507a810-cff7-4168-bc10-70a32a55920f.rtf</t>
-  </si>
-  <si>
-    <t>https://utda.github.io/text/rtf/4791f609-8567-48cd-96a2-9eb8157aac11.rtf</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtCVV5BlzexxOBCKGJychNQ%EF%BC%8BAeAAAVQ6ShHMH6Ixez52wZF%EF%BC%8BnmfrR3mLh7k%EF%BC%8FKGMJfCg%3D</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtBQDKogs60S0CHoIbhQHKsFTuRiRV5FBm%EF%BC%8BzbW7Pwyak%EF%BC%8F1aA0wqxOzU9WBMnu2ioDk0%3D</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -318,10 +411,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,14 +433,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,395 +738,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="R1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="T1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="U1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="V1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="X1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="Z1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AA1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AB1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AC1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AD1" t="s">
-        <v>92</v>
+        <v>123</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2">
+        <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="AE3">
+        <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" t="s">
+        <v>92</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4">
         <v>91</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s">
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>82</v>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="S2" r:id="rId3" location="rightToLeftDirection"/>
-    <hyperlink ref="V2" r:id="rId4"/>
-    <hyperlink ref="W2" r:id="rId5"/>
-    <hyperlink ref="X2" r:id="rId6"/>
-    <hyperlink ref="Z2" r:id="rId7"/>
-    <hyperlink ref="P3" r:id="rId8"/>
-    <hyperlink ref="Q3" r:id="rId9"/>
-    <hyperlink ref="S3" r:id="rId10" location="rightToLeftDirection"/>
-    <hyperlink ref="V3" r:id="rId11"/>
-    <hyperlink ref="W3" r:id="rId12"/>
-    <hyperlink ref="X3" r:id="rId13"/>
-    <hyperlink ref="Z3" r:id="rId14"/>
-    <hyperlink ref="AA3" r:id="rId15"/>
-    <hyperlink ref="AB3" r:id="rId16"/>
-    <hyperlink ref="AC3" r:id="rId17"/>
-    <hyperlink ref="AD3" r:id="rId18"/>
-    <hyperlink ref="P4" r:id="rId19"/>
-    <hyperlink ref="Q4" r:id="rId20"/>
-    <hyperlink ref="S4" r:id="rId21" location="rightToLeftDirection"/>
-    <hyperlink ref="V4" r:id="rId22"/>
-    <hyperlink ref="W4" r:id="rId23"/>
-    <hyperlink ref="X4" r:id="rId24"/>
-    <hyperlink ref="Z4" r:id="rId25"/>
-    <hyperlink ref="AA4" r:id="rId26"/>
-    <hyperlink ref="AB4" r:id="rId27"/>
-    <hyperlink ref="AC4" r:id="rId28"/>
-    <hyperlink ref="AD4" r:id="rId29"/>
-    <hyperlink ref="P5" r:id="rId30"/>
-    <hyperlink ref="Q5" r:id="rId31"/>
-    <hyperlink ref="V5" r:id="rId32"/>
-    <hyperlink ref="W5" r:id="rId33"/>
-    <hyperlink ref="X5" r:id="rId34"/>
-    <hyperlink ref="Z5" r:id="rId35"/>
+    <hyperlink ref="P3" r:id="rId1"/>
+    <hyperlink ref="Q3" r:id="rId2"/>
+    <hyperlink ref="W3" r:id="rId3"/>
+    <hyperlink ref="X3" r:id="rId4"/>
+    <hyperlink ref="Y3" r:id="rId5"/>
+    <hyperlink ref="Z3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="AB3" r:id="rId7"/>
+    <hyperlink ref="P4" r:id="rId8"/>
+    <hyperlink ref="Q4" r:id="rId9"/>
+    <hyperlink ref="R4" r:id="rId10"/>
+    <hyperlink ref="S4" r:id="rId11"/>
+    <hyperlink ref="T4" r:id="rId12"/>
+    <hyperlink ref="U4" r:id="rId13"/>
+    <hyperlink ref="W4" r:id="rId14"/>
+    <hyperlink ref="X4" r:id="rId15"/>
+    <hyperlink ref="Y4" r:id="rId16"/>
+    <hyperlink ref="Z4" r:id="rId17" location="rightToLeftDirection"/>
+    <hyperlink ref="AB4" r:id="rId18"/>
+    <hyperlink ref="P5" r:id="rId19"/>
+    <hyperlink ref="Q5" r:id="rId20"/>
+    <hyperlink ref="R5" r:id="rId21"/>
+    <hyperlink ref="S5" r:id="rId22"/>
+    <hyperlink ref="T5" r:id="rId23"/>
+    <hyperlink ref="U5" r:id="rId24"/>
+    <hyperlink ref="W5" r:id="rId25"/>
+    <hyperlink ref="X5" r:id="rId26"/>
+    <hyperlink ref="Y5" r:id="rId27"/>
+    <hyperlink ref="Z5" r:id="rId28" location="rightToLeftDirection"/>
+    <hyperlink ref="AB5" r:id="rId29"/>
+    <hyperlink ref="P6" r:id="rId30"/>
+    <hyperlink ref="Q6" r:id="rId31"/>
+    <hyperlink ref="W6" r:id="rId32"/>
+    <hyperlink ref="X6" r:id="rId33"/>
+    <hyperlink ref="Y6" r:id="rId34"/>
+    <hyperlink ref="AB6" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -307,13 +307,13 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d507a810-cff7-4168-bc10-70a32a55920f/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtCVV5BlzexxOBCKGJychNQ%EF%BC%8BAeAAAVQ6ShHMH6Ixez52wZF%EF%BC%8BnmfrR3mLh7k%EF%BC%8FKGMJfCg%3D</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca610e82300c06d013ad1de01c709bda6d01ad8eb08f88b7979f2f790bb0b59959765d92405a0625a3154a87437dfd2a89d27363ad6659b1d64f63932f239fe0f36d9c828f3276de6929d1ddbafbe81e7a317a197a0961ea7da12bfe01e1032325</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/17/manifest.json</t>
   </si>
   <si>
-    <t>https://utda.github.io/text/rtf/d507a810-cff7-4168-bc10-70a32a55920f.rtf</t>
+    <t>https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/rtf/d507a810-cff7-4168-bc10-70a32a55920f.rtf</t>
   </si>
   <si>
     <t>御前落居奉書</t>
@@ -346,13 +346,13 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4791f609-8567-48cd-96a2-9eb8157aac11/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/kPzFpI4mtex7HdRmrZL1ew9r7OCgdDPvNX2g0njpVtBQDKogs60S0CHoIbhQHKsFTuRiRV5FBm%EF%BC%8BzbW7Pwyak%EF%BC%8F1aA0wqxOzU9WBMnu2ioDk0%3D</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca590ec2300c05c013d926a8cdc26d8c13d48221157915e5f630dfb300dbb888e8db96aad0d1c0d57985f14ee88f6f6735be6f62ddbd19d6fe1ae2fa11b403723c5da654c22d9e0ae539269ab2552a51cf54da358739a95a08fc8f3fd5d72318</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/18/manifest.json</t>
   </si>
   <si>
-    <t>https://utda.github.io/text/rtf/4791f609-8567-48cd-96a2-9eb8157aac11.rtf</t>
+    <t>https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/rtf/4791f609-8567-48cd-96a2-9eb8157aac11.rtf</t>
   </si>
   <si>
     <t>Auslandsrecht : Blätter für Industrie und Handel : Organ des Instituts für ausländisches Recht beim Reichsverband der deutschen Industrie</t>

--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>資料名/Title</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>東京大学法学部法制史資料室所蔵コレクション</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d1297638-951b-4f15-9fb1-55d98b8e36ac/manifest</t>
@@ -1011,11 +1014,13 @@
         <v>81</v>
       </c>
       <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
+      <c r="Y3" t="s">
+        <v>82</v>
+      </c>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s"/>
       <c r="AD3" t="s"/>
@@ -1027,17 +1032,17 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>69</v>
@@ -1045,62 +1050,64 @@
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
         <v>71</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s">
         <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
         <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W4" t="s">
         <v>81</v>
       </c>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE4" t="s"/>
       <c r="AF4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="n">
         <v>91</v>
@@ -1108,17 +1115,17 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
         <v>69</v>
@@ -1126,62 +1133,64 @@
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
         <v>71</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s">
         <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T5" t="s">
         <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W5" t="s">
         <v>81</v>
       </c>
       <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
       <c r="AB5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE5" t="s"/>
       <c r="AF5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="n">
         <v>77</v>
@@ -1189,72 +1198,74 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
         <v>116</v>
       </c>
-      <c r="G6" t="s">
-        <v>115</v>
-      </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T6" t="s">
         <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
       <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
       <c r="AB6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC6" t="s"/>
       <c r="AD6" t="s"/>

--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>資料名/Title</t>
   </si>
@@ -210,6 +210,63 @@
   </si>
   <si>
     <t>uterms:rtf</t>
+  </si>
+  <si>
+    <t>甲州法度之次第</t>
+  </si>
+  <si>
+    <t>【解題】甲州法度之次第(東京大学法学部法制史資料室所蔵本)
+甲斐国(現在の山梨県)に本拠を持った戦国大名武田晴信(信玄)が、 その支配する領国を統治するために制定した分国法。家臣に対する種々の規律を主内容とし、 全体的に隣国駿河の今川氏の「今川かな目録」の強い影響が認められる。
+「甲州法度之次第」と呼ばれるものには大別して26箇条本と55箇条(プラス追加2箇条)本の二種の伝本があり、 前者が天文16(1547)年6月に成立した原型、それを基に増補改訂を経て55箇条に整理された後、 天文23(1554)年5月にさらに2箇条が追加されて成立したのが後者、と考えられている。 『甲陽軍鑑』に採録されるなどして世上に多く流布したのは後者の系統だが、 この系統に属する諸本にはなお種々の異同があり、 流布本が成立するまでにはさらに若干の経緯があったと推測されるものの、詳細は明らかではない。
+法制史資料室所蔵本は流布本系の代表的な一本で、冒頭の表題部分に円形重郭龍文の朱印判一顆が捺され、 末尾には「天正八庚辰年二月十七日書之」とある。冒頭の印判は信玄が天文12(1543)年以降用い、 天正元(1573)年の信玄死後は嗣子勝頼が天正10(1582)年の武田氏滅亡に至るまで襲用したものである。 従って該本は武田勝頼のもとで作成されたものと認められ、当時通用の「法度」を伝える最善本と評価される。 佐藤進一・池内義資・百瀬今朝雄編『中世法制史料集 第三巻 武家家法I』(岩波書店 1965年) 所収「甲州法度之次第」の底本として用いられるなど、学界においても「甲州法度之次第」の標準的なテクストとして認知されている。 鳥の子紙27枚を継ぎ合わせ、裏打ちを施して成巻され、第一紙裏に「東京帝国大學圖書印」一顆が捺されている。</t>
+  </si>
+  <si>
+    <t>巻子; 1巻</t>
+  </si>
+  <si>
+    <t>天正8年/1580</t>
+  </si>
+  <si>
+    <t>東京大学法学部研究室図書室法制史資料室 / Legal History Section, Faculty of Law Library, the University of Tokyo</t>
+  </si>
+  <si>
+    <t>甲:2:3693</t>
+  </si>
+  <si>
+    <t>古文書;Historical Documents</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/102a847a-ea96-464a-84ba-cb714696bfbd</t>
+  </si>
+  <si>
+    <t>102a847a-ea96-464a-84ba-cb714696bfbd</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koshu/</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/10/default.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/10</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/102a847a-ea96-464a-84ba-cb714696bfbd/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca610e82300c06d013b505d30cf036dfba11d0ea88ab116fafeff7db228e7e15c1cbb68240afc1c5790fe33745bb7f1bc3f8768835f76ab1b76717c747a29e21e7c3651c2e987502552c89342968d60cb23c8d9a9694d75cf81f7fe36723c2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/10/manifest.json</t>
+  </si>
+  <si>
+    <t>http://tapasproject.org/tapas-commons/files/甲州法度之次第</t>
+  </si>
+  <si>
+    <t>https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/rtf/102a847a-ea96-464a-84ba-cb714696bfbd.rtf</t>
   </si>
   <si>
     <t>大坂町中江出寺請状諸宗寺々五人組判形帳</t>
@@ -226,15 +283,9 @@
     <t>元禄8年/1695</t>
   </si>
   <si>
-    <t>東京大学法学部研究室図書室法制史資料室 / Legal History Section, Faculty of Law Library, the University of Tokyo</t>
-  </si>
-  <si>
     <t>甲:2:1291</t>
   </si>
   <si>
-    <t>古文書;Historical Documents</t>
-  </si>
-  <si>
     <t>jpn</t>
   </si>
   <si>
@@ -244,9 +295,6 @@
     <t>南農人町壱丁目に伝存したもの</t>
   </si>
   <si>
-    <t>https://www.lib.j.u-tokyo.ac.jp/digitalarchive/terms/legalhistorysectionterms.html</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/d1297638-951b-4f15-9fb1-55d98b8e36ac</t>
   </si>
   <si>
@@ -392,9 +440,6 @@
   </si>
   <si>
     <t>3000001573</t>
-  </si>
-  <si>
-    <t>https://www.lib.j.u-tokyo.ac.jp/digitalarchive/terms/facultyoflawlibraryterms.html</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/a1a320db-682a-4846-b99f-9414f6a17a2c</t>
@@ -745,7 +790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,7 +997,7 @@
         <v>64</v>
       </c>
       <c r="AG2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -981,65 +1026,65 @@
         <v>71</v>
       </c>
       <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
       <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
         <v>77</v>
       </c>
-      <c r="T3" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" t="s">
-        <v>81</v>
-      </c>
+      <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
       <c r="AB3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="s"/>
-      <c r="AF3" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>82</v>
+      </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
@@ -1067,19 +1112,17 @@
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
         <v>91</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" t="s"/>
+      <c r="S4" t="s">
         <v>92</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>93</v>
-      </c>
-      <c r="T4" t="s">
-        <v>78</v>
       </c>
       <c r="U4" t="s">
         <v>94</v>
@@ -1088,41 +1131,35 @@
         <v>95</v>
       </c>
       <c r="W4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD4" t="s">
         <v>98</v>
       </c>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
       <c r="AE4" t="s"/>
-      <c r="AF4" t="s">
-        <v>99</v>
-      </c>
+      <c r="AF4" t="s"/>
       <c r="AG4" t="n">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>101</v>
@@ -1140,138 +1177,221 @@
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
       <c r="AB5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE5" t="s"/>
       <c r="AF5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s">
-        <v>114</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>116</v>
       </c>
       <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
         <v>117</v>
       </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" t="s">
         <v>118</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s"/>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="s">
         <v>119</v>
       </c>
-      <c r="J6" t="s">
+      <c r="R6" t="s">
         <v>120</v>
       </c>
-      <c r="K6" t="s">
+      <c r="S6" t="s">
         <v>121</v>
       </c>
-      <c r="L6" t="s">
+      <c r="T6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" t="s">
         <v>122</v>
       </c>
-      <c r="M6" t="s">
+      <c r="V6" t="s">
         <v>123</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" t="s">
-        <v>128</v>
-      </c>
-      <c r="V6" t="s">
-        <v>129</v>
-      </c>
-      <c r="W6" t="s"/>
+      <c r="W6" t="s">
+        <v>96</v>
+      </c>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
       <c r="AB6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE6" t="s"/>
+      <c r="AF6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
         <v>130</v>
       </c>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="n">
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" t="s">
+        <v>142</v>
+      </c>
+      <c r="V7" t="s">
+        <v>143</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s"/>
+      <c r="AB7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="s"/>
+      <c r="AE7" t="s"/>
+      <c r="AF7" t="s"/>
+      <c r="AG7" t="n">
         <v>56</v>
       </c>
     </row>

--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -331,7 +331,7 @@
     <t>御前落居記録</t>
   </si>
   <si>
-    <t>室町幕府第六代将軍足利義教のもとで行われた政務上の案件処理手続である「御前沙汰」の記録史料。「御前沙汰」においては、通常二人一組で案件を担当する奉行人から、1案件処理の原案を将軍に上程して裁可を仰ぎ、2将軍の裁可を得たものについては「奉行人奉書」と呼ばれる文書を作成して関係者に執達する。1の手続を記録したものが『御前落居記録』(以下「記録」)、2の文書の発給手控えとして残されたものが『御前落居奉書』(以下「奉書」)である。現代に伝存するのはいずれも永享2年(1430)から同4年(1432)のもので、法制史資料室所蔵の「記録」は義教自身が花押(サイン)を据えて裁可を与えた原本、「奉書」は天文6年(1537)に筆写された写本と考えられている。「記録」には72件、「奉書」には118件が記録されている。両者の内容は必ずしも相対応するものではなく、いずれにせよこの時期の「御前沙汰」の全貌が記録されているわけではないが、中期室町幕府の「裁判」を研究する上での最重要の史料である。桑山浩然校訂『室町幕府引付史料集成 上巻』(近藤出版社1980)に翻刻収録されている。</t>
+    <t>室町幕府第六代将軍足利義教のもとで行われた政務上の案件処理手続である「御前沙汰」の記録史料。「御前沙汰」においては、通常二人一組で案件を担当する奉行人から、1案件処理の原案を将軍に上程して裁可を仰ぎ、2将軍の裁可を得たものについては「奉行人奉書」と呼ばれる文書を作成して関係者に執達する。1の手続を記録したものが『御前落居記録』(以下「記録」)、2の文書の発給手控えとして残されたものが『御前落居奉書』(以下「奉書」)である。現代に伝存するのはいずれも永享2年(1430)から同4年(1432)のもので、法制史資料室所蔵の「記録」は義教自身が花押(サイン)を据えて裁可を与えた原本、「奉書」は遅くとも文明年間(1469-1487)までに筆写された写本と考えられている。「記録」には72件、「奉書」には118件が記録されている。両者の内容は必ずしも相対応するものではなく、いずれにせよこの時期の「御前沙汰」の全貌が記録されているわけではないが、中期室町幕府の「裁判」を研究する上での最重要の史料である。桑山浩然校訂『室町幕府引付史料集成 上巻』(近藤出版社1980)に翻刻収録されている。</t>
   </si>
   <si>
     <t>永享2-4年/1430-1432</t>
@@ -382,13 +382,13 @@
     <t>御前落居奉書</t>
   </si>
   <si>
-    <t>永享2-4年/天文6年/1430-1432/1537</t>
+    <t>永享2-4年/室町時代中期/1430-1432/-c1480</t>
   </si>
   <si>
     <t>甲:2:524</t>
   </si>
   <si>
-    <t>印記: 「宮崎蔵書」「運甓斎蔵書記」; 備考: 天文6年(1537)写。甲:2:523同帙入</t>
+    <t>印記: 「宮崎蔵書」「運甓斎蔵書記」; 備考: 室町時代中期写。甲:2:523同帙入</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/law/document/4791f609-8567-48cd-96a2-9eb8157aac11</t>

--- a/docs/collections/law/metadata/data.xlsx
+++ b/docs/collections/law/metadata/data.xlsx
@@ -263,7 +263,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/102a847a-ea96-464a-84ba-cb714696bfbd/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca610e82300c06d013b505d30cf036dfba11d0ea88ab116fafeff7db228e7e15c1cbb68240afc1c5790fe33745bb7f1bc3f8768835f76ab1b76717c747a29e21e7c3651c2e987502552c89342968d60cb23c8d9a9694d75cf81f7fe36723c2</t>
+    <t>https://w3id.org/dhj/i3sa/https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/xml/102a847a-ea96-464a-84ba-cb714696bfbd.xml</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/10/manifest.json</t>
@@ -370,7 +370,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/d507a810-cff7-4168-bc10-70a32a55920f/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca610e82300c06d013ad1de01c709bda6d01ad8eb08f88b7979f2f790bb0b59959765d92405a0625a3154a87437dfd2a89d27363ad6659b1d64f63932f239fe0f36d9c828f3276de6929d1ddbafbe81e7a317a197a0961ea7da12bfe01e1032325</t>
+    <t>https://w3id.org/dhj/i3sa/https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/xml/d507a810-cff7-4168-bc10-70a32a55920f.xml</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/17/manifest.json</t>
@@ -412,7 +412,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4791f609-8567-48cd-96a2-9eb8157aac11/manifest</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/api/iiif-search/78da0dca590ec2300c05c013d926a8cdc26d8c13d48221157915e5f630dfb300dbb888e8db96aad0d1c0d57985f14ee88f6f6735be6f62ddbd19d6fe1ae2fa11b403723c5da654c22d9e0ae539269ab2552a51cf54da358739a95a08fc8f3fd5d72318</t>
+    <t>https://w3id.org/dhj/i3sa/https://archdataset.dl.itc.u-tokyo.ac.jp/collections/law/text/xml/4791f609-8567-48cd-96a2-9eb8157aac11.xml</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/omekac/oa/collections/18/manifest.json</t>
